--- a/makepo/po.xlsx
+++ b/makepo/po.xlsx
@@ -26,7 +26,7 @@
     <definedName name="payment">PO!$E$307</definedName>
     <definedName name="pic">PO!$B$10</definedName>
     <definedName name="pon">PO!$L$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$B$1:$L$312</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$B$1:$L$315</definedName>
     <definedName name="qty">PO!#REF!</definedName>
     <definedName name="remarks">PO!#REF!</definedName>
     <definedName name="tel_fax">PO!$B$9</definedName>
@@ -1183,10 +1183,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1194,11 +1197,11 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="43" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
@@ -5187,8 +5190,8 @@
   </mergeCells>
   <phoneticPr fontId="33"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="49" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="62" firstPageNumber="0" fitToHeight="11" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>